--- a/modified_tables/table_20.xlsx
+++ b/modified_tables/table_20.xlsx
@@ -14,36 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
-    <t>Year</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>2017</t>
+    <t>Of which: male</t>
   </si>
   <si>
-    <t>Total participants</t>
+    <t>Of which: female</t>
   </si>
   <si>
-    <t>1,061</t>
+    <t>By age and gender</t>
   </si>
   <si>
-    <t>Total for company sports activities</t>
+    <t>30 to 49</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>Total for sickness/injury prevention courses</t>
-  </si>
-  <si>
-    <t>321</t>
-  </si>
-  <si>
-    <t>Average health rate for the year (%)</t>
-  </si>
-  <si>
-    <t>96.5</t>
+    <t>50+</t>
   </si>
 </sst>
 </file>
@@ -401,78 +389,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1"/>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>2019</v>
       </c>
       <c r="B2">
-        <v>784</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>554</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>230</v>
-      </c>
-      <c r="E2">
-        <v>95.3</v>
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>991</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>683</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>308</v>
-      </c>
-      <c r="E3">
-        <v>95.3</v>
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
